--- a/Report 3 ngày/Yino-3-ngày.xlsx
+++ b/Report 3 ngày/Yino-3-ngày.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="131">
   <si>
     <t>Account name</t>
   </si>
@@ -62,10 +62,13 @@
     <t>active</t>
   </si>
   <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
-    <t>2024-04-05</t>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>Home Is Where We Park It You And Me And The Dogs - Gift For Camping Lovers - Personalized Doormat_DMHC050NGO1503WP_07/07/23</t>
   </si>
   <si>
     <t>WP-Unique 01</t>
@@ -74,196 +77,223 @@
     <t>Keys To The Camper - Anniversary, Loving Gifts For Couples, Husband, Wife, Camping Lovers - Personalized Aluminum Keychain_VideoAds_LDAK779NAH2386WP_180723</t>
   </si>
   <si>
-    <t>Home Is Where We Park It You And Me And The Dogs - Gift For Camping Lovers - Personalized Doormat_DMHC050NGO1503WP_07/07/23</t>
-  </si>
-  <si>
     <t>WP</t>
   </si>
   <si>
     <t>Grandma Mother Hugged This Soft Pillow - Gift For Granddaughter, Grandson, Kids - Personalized Pillow_PLAT928DIL189WP_14/07/23</t>
   </si>
   <si>
+    <t>WP 0206-02</t>
+  </si>
+  <si>
+    <t>Bestie Partners In Crime If We Get Caught - Personalized Custom Tumbler_TUGT152CIN11335WP_10/01</t>
+  </si>
+  <si>
     <t>Family Couple A Lovely Lady And A Grumpy Old Man Live Here - Couple Gift - Personalized Custom Doormat_VideoAds_DMBD520ELE1384WP_170623</t>
   </si>
   <si>
-    <t>WP 0206-02</t>
-  </si>
-  <si>
-    <t>Bestie Partners In Crime If We Get Caught - Personalized Custom Tumbler_TUGT152CIN11335WP_10/01</t>
+    <t>Traveling Couple Hubby &amp; Wifey Travel Partners For Life - Gift For Couples, Traveling Gift - Personalized Passport Cover, Passport Holder_VideoAds_PDHU012CIN1430WP_220723</t>
+  </si>
+  <si>
+    <t>Dike - Maximo - Wanderprints 1</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic11_Bestie Gift</t>
+  </si>
+  <si>
+    <t>7-day click</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic3_Smart Shopping ROAS 2 (Purchase 30 days) - Copy</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic16_All product Prime Day_07/07</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic12_Gift For Couples_18/01</t>
+  </si>
+  <si>
+    <t>Dike - Maximo - Wanderprints 3</t>
+  </si>
+  <si>
+    <t>Family Couple A Lovely Lady And A Grumpy Old Man Live Here - Couple Gift - Personalized Custom Doormat_DMBD520ELE1384WP_17/03</t>
   </si>
   <si>
     <t>Couple After Years Hotter Than This Coffee - Gift For Couples - Personalized Mug_MGMN835CIN1553WP_31/08/23</t>
   </si>
   <si>
-    <t>Dike - Maximo - Wanderprints 1</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic16_All product Prime Day_07/07</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic12_Gift For Couples_18/01</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic3_Smart Shopping ROAS 2 (Purchase 30 days) - Copy</t>
-  </si>
-  <si>
-    <t>7-day click</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic11_Bestie Gift</t>
-  </si>
-  <si>
-    <t>Dike - Maximo - Wanderprints 3</t>
-  </si>
-  <si>
-    <t>Family Couple A Lovely Lady And A Grumpy Old Man Live Here - Couple Gift - Personalized Custom Doormat_DMBD520ELE1384WP_17/03</t>
+    <t>03/02/24_Reopen_Dear Mom Great Job We're Awesome Thank You Young - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Custom T Shirt_VideoAds_TSVT166HAL1096WP_2804</t>
+  </si>
+  <si>
+    <t>Dear Dad Great Job We're Awesome Thank You - Father Gift - Personalized Custom T Shirt_04/05</t>
   </si>
   <si>
     <t>Home Is Where We Park It - Gift For Camping Lovers - Personalized Custom Doormat_DMHC027NGO1440WP_13/06/23</t>
   </si>
   <si>
+    <t>AHUY_20/08_Brand Ads_Special gift with personal touch_Conversion</t>
+  </si>
+  <si>
+    <t>(Chuẩn)_Personalized Family Old Couple When We Get Customized Poster_PT120521NAH02WP_12/05</t>
+  </si>
+  <si>
+    <t>Please Be Mindful Of The Energy You Bring Into This Space - Birthday, Loving Gift For Yourself, Women, Yoga Lovers - Personalized Custom Shaped Wood Sign_WSTR045HAL1524WP_31/08/23</t>
+  </si>
+  <si>
+    <t>Ecomy Gift PTE 01</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic25_Summer Vibe_16/06</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic11_Bestie Gift_07/02</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic27_Retarget Maximum Conversion_04/08</t>
+  </si>
+  <si>
+    <t>Go Away Unless You Have Alcohol And Cat Treats Funny Cartoon Cat - Gift For Cat Lovers, Couples - Personalized Doormat_DMAK803NAH2452WP_26/07/23</t>
+  </si>
+  <si>
     <t>Making Memories One Campsite At A Time Husband Wife Camping Couple - Personalized Custom Flag_VideoAds_FLTN755NAH1507WP_2903</t>
   </si>
   <si>
-    <t>Traveling Couple Hubby &amp; Wifey Travel Partners For Life - Gift For Couples, Traveling Gift - Personalized Passport Cover, Passport Holder_VideoAds_PDHU012CIN1430WP_220723</t>
+    <t>AHUY_22/08_Brand Ads_Personalized home decor, garden decor, backyard decor_Conversion</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for Memorial Image_04/04/24</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for Mom Carosel_29/03/24 - Copy</t>
+  </si>
+  <si>
+    <t>Just A Girl Boy Who Loves Traveling - Birthday Gift For Him, Her, Family, Trippin', Vacation Lovers - Personalized Custom Passport Cover, Passport Holder_VideoAds_PCAH303ELE2165WP_2904</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic18_Camping Topic_16/08</t>
+  </si>
+  <si>
+    <t>Vintage Map Papa Title - Birthday, Loving Gift For Dad, Father, Papa, Grandpa, Grandfather - Personalized Custom T Shirt_TSHP032HAL1210WP_26/04</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for Memorial Carosel_04/04/24 - Copy</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for Mom Image_29/03/24</t>
+  </si>
+  <si>
+    <t>Video_Branding Ads_All Product_16/08</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for Pet Mom Image_28/03/24</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for Pet Mom Carosel_28/03/24 - Copy</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for New Mom Carosel_03/04/24</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for New Mom Image_03/04/24</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic4_Retarget ROAS - Copy</t>
+  </si>
+  <si>
+    <t>Dike - Maximo - Wanderprints 2</t>
+  </si>
+  <si>
+    <t>LearnmoredAds_Dog Couple A Lovely Lady And A Grumpy Old Man Live Here - Gift For Dog Lovers - Personalized Custom Doormat_DMBD528ELE1393WP_03/11</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic23_2023 Father's Day Top Trending_25/05</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic12_Gift For Couples_07/02</t>
+  </si>
+  <si>
+    <t>You Are The Reason I Don't Punch People At Work - Funny, Anniversary, Birthday Gifts For Colleagues, Coworker, Besties - Personalized Custom Acrylic Keychain_VideoAds_ADAK733NAH2189WP_200523</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic24_2023 Father's Day Best Selling_26/05</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic22_Gift For Father_05/05</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for New Dad Image_09/04/24</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for New Dad Carosel_09/04/24</t>
+  </si>
+  <si>
+    <t>Custom Photo Funny Family Pet Face - Gift For Men, Dog And Cat Lovers - Personalized Custom Hawaiian Shirt_VideoAds_HSTD137ALE007WP_260523</t>
+  </si>
+  <si>
+    <t>Advantage + Shopping_Custom Photo Pillow In The Shape Of Your Beloved Pet - Gift For Friends, Lovers, Husband, Wife And Pet Lovers - Personalized Custom Shape Pillow_LSTRA001MAR001WP_20/07/23</t>
+  </si>
+  <si>
+    <t>Marketing_Book Lovers day Image_10/08</t>
+  </si>
+  <si>
+    <t>Reading Just A Girl Who Loves Book - Gift For Book Lovers - Personalized Custom Zippered Canvas Bag_VideoAds_ZTAT899DIL143WP_280623</t>
+  </si>
+  <si>
+    <t>25/05_Brand Ads_Summer Vibe</t>
+  </si>
+  <si>
+    <t>We Rule The House Dog Cat Version - Home Decor, Birthday, Funny, Housewarming Gift For Pet Lovers, Dog Lovers, Cat Lovers - Personalized Pillow_VideoAds_PLTP028BIL076WP_220823</t>
+  </si>
+  <si>
+    <t>Video_Branding Ads_Motherdays_21/03/24 - Copy</t>
+  </si>
+  <si>
+    <t>Video_Branding Ads_Motherdays_21/02/24</t>
+  </si>
+  <si>
+    <t>Image_Branding Ads_All Product_18/08</t>
   </si>
   <si>
     <t>Camping Couple Husband &amp; Wife Camping Partners For Life - Anniversary, Vacation, Funny Gift For Campers - Personalized Custom Shaped Wood Sign_WSAK887NAH2807WP_14/11/23</t>
   </si>
   <si>
+    <t>Dear Dad Great Job We're Awesome Thank You Young - Father Gift - Personalized Custom T Shirt_TSBD577HAL759WP_09/05</t>
+  </si>
+  <si>
+    <t>Please Be Mindful Of The Energy You Bring Into This Space - Birthday, Loving Gift For Yourself, Women, Yoga Lovers - Personalized Doormat_VideoAds_DMHP092HAL1425WP_150823</t>
+  </si>
+  <si>
+    <t>Marketing_Dynamic20_Gift For Mother_14/02</t>
+  </si>
+  <si>
+    <t>Bestie Partners In Crime If We Get Caught Black Ver - Gift For Bestie - Personalized Custom Rectangle Acrylic Keychain_ADGT214CIN1288WP_19/04</t>
+  </si>
+  <si>
+    <t>Ecomy Gift PTE 03</t>
+  </si>
+  <si>
+    <t>Mom Multitasking Overworked Magician - Gift For Mother - Personalized Leather Bag_VideoAdsR_EAHT331NEL2094WP_090424</t>
+  </si>
+  <si>
+    <t>7-day click, 1-day view or 1-day engaged view</t>
+  </si>
+  <si>
+    <t>What Day Is Today Who Cares Retired - Retirement Gift - Personalized Custom T Shirt_TSCT324HAL715WP_01/04</t>
+  </si>
+  <si>
+    <t>Marketing_Gift for Memorial Dad_10/04/24</t>
+  </si>
+  <si>
     <t>Think Of This Blanket - Gift For Sisters - Personalized Fleece Blanket_VideoAds_FBHU017NEL1496WP_180823</t>
   </si>
   <si>
-    <t>AHUY_20/08_Brand Ads_Special gift with personal touch_Conversion</t>
-  </si>
-  <si>
-    <t>Ecomy Gift PTE 01</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic27_Retarget Maximum Conversion_04/08</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic25_Summer Vibe_16/06</t>
-  </si>
-  <si>
-    <t>Dear Dad Great Job We're Awesome Thank You - Father Gift - Personalized Custom T Shirt_04/05</t>
-  </si>
-  <si>
-    <t>(Chuẩn)_Personalized Family Old Couple When We Get Customized Poster_PT120521NAH02WP_12/05</t>
-  </si>
-  <si>
-    <t>Vintage Map Papa Title - Birthday, Loving Gift For Dad, Father, Papa, Grandpa, Grandfather - Personalized Custom T Shirt_TSHP032HAL1210WP_26/04</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for Pet Mom Image_28/03/24</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for Mom Image_29/03/24</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for Mom Carosel_29/03/24 - Copy</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for Pet Mom Carosel_28/03/24 - Copy</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic11_Bestie Gift_07/02</t>
-  </si>
-  <si>
-    <t>Please Be Mindful Of The Energy You Bring Into This Space - Birthday, Loving Gift For Yourself, Women, Yoga Lovers - Personalized Custom Shaped Wood Sign_WSTR045HAL1524WP_31/08/23</t>
-  </si>
-  <si>
-    <t>Go Away Unless You Have Alcohol And Cat Treats Funny Cartoon Cat - Gift For Cat Lovers, Couples - Personalized Doormat_DMAK803NAH2452WP_26/07/23</t>
-  </si>
-  <si>
-    <t>You Are The Reason I Don't Punch People At Work - Funny, Anniversary, Birthday Gifts For Colleagues, Coworker, Besties - Personalized Custom Acrylic Keychain_VideoAds_ADAK733NAH2189WP_200523</t>
-  </si>
-  <si>
-    <t>Video_Branding Ads_All Product_16/08</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for New Mom Image_03/04/24</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for New Mom Carosel_03/04/24</t>
-  </si>
-  <si>
-    <t>03/02/24_Reopen_Dear Mom Great Job We're Awesome Thank You Young - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Custom T Shirt_VideoAds_TSVT166HAL1096WP_2804</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic24_2023 Father's Day Best Selling_26/05</t>
-  </si>
-  <si>
-    <t>AHUY_22/08_Brand Ads_Personalized home decor, garden decor, backyard decor_Conversion</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic23_2023 Father's Day Top Trending_25/05</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic22_Gift For Father_05/05</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic18_Camping Topic_16/08</t>
-  </si>
-  <si>
-    <t>25/05_Brand Ads_Summer Vibe</t>
-  </si>
-  <si>
-    <t>Bestie Partners In Crime If We Get Caught Black Ver - Gift For Bestie - Personalized Custom Rectangle Acrylic Keychain_ADGT214CIN1288WP_19/04</t>
-  </si>
-  <si>
-    <t>Dike - Maximo - Wanderprints 2</t>
-  </si>
-  <si>
-    <t>LearnmoredAds_Dog Couple A Lovely Lady And A Grumpy Old Man Live Here - Gift For Dog Lovers - Personalized Custom Doormat_DMBD528ELE1393WP_03/11</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for Memorial Image_03/04/24</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic4_Retarget ROAS - Copy</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic12_Gift For Couples_07/02</t>
-  </si>
-  <si>
-    <t>Marketing_Book Lovers day Image_10/08</t>
-  </si>
-  <si>
-    <t>We Rule The House Dog Cat Version - Home Decor, Birthday, Funny, Housewarming Gift For Pet Lovers, Dog Lovers, Cat Lovers - Personalized Pillow_VideoAds_PLTP028BIL076WP_220823</t>
-  </si>
-  <si>
-    <t>Marketing_Gift for Memorial Carosel_03/04/24 - Copy</t>
-  </si>
-  <si>
-    <t>Video_Branding Ads_Motherdays_21/03/24 - Copy</t>
-  </si>
-  <si>
-    <t>Video_Branding Ads_Motherdays_21/02/24</t>
-  </si>
-  <si>
-    <t>Image_Branding Ads_All Product_18/08</t>
-  </si>
-  <si>
-    <t>Advantage + Shopping_Custom Photo Pillow In The Shape Of Your Beloved Pet - Gift For Friends, Lovers, Husband, Wife And Pet Lovers - Personalized Custom Shape Pillow_LSTRA001MAR001WP_20/07/23</t>
-  </si>
-  <si>
-    <t>Please Be Mindful Of The Energy You Bring Into This Space - Birthday, Loving Gift For Yourself, Women, Yoga Lovers - Personalized Doormat_VideoAds_DMHP092HAL1425WP_150823</t>
-  </si>
-  <si>
-    <t>Runagain_Dear Mom Great Job We're Awesome Thank You - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Custom T Shirt_08/02</t>
-  </si>
-  <si>
-    <t>Custom Photo Funny Family Pet Face - Gift For Men, Dog And Cat Lovers - Personalized Custom Hawaiian Shirt_VideoAds_HSTD137ALE007WP_260523</t>
-  </si>
-  <si>
-    <t>Just A Girl Boy Who Loves Traveling - Birthday Gift For Him, Her, Family, Trippin', Vacation Lovers - Personalized Custom Passport Cover, Passport Holder_VideoAds_PCAH303ELE2165WP_2904</t>
-  </si>
-  <si>
-    <t>Marketing_Dynamic20_Gift For Mother_14/02</t>
-  </si>
-  <si>
-    <t>Ecomy Gift PTE 03</t>
+    <t>Marketing_Gift for Memorial Dad Carosel_10/04/24</t>
+  </si>
+  <si>
+    <t>Runagain_Dear Mom Great Job We're Awesome Thank You - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Custom T Shirt_TSTS006HAL740WP_08/02</t>
+  </si>
+  <si>
+    <t>Reading Chibi Just A Girl Who Loves Books - Personalized Custom Fleece Blanket_VideoAds_FBMN683CIN1005WP_1705</t>
   </si>
   <si>
     <t>Couple Kissing Style 2 - Anniversary Gift For Couples - Personalized Acrylic Car Hanger_AHBD1019ELE2765WP_28/12/23</t>
@@ -272,157 +302,109 @@
     <t>Marketing_Happy St Patrick's Day - Summer Vibe Image_17/03/24</t>
   </si>
   <si>
-    <t>Reading Just A Girl Who Loves Book - Gift For Book Lovers - Personalized Custom Zippered Canvas Bag_VideoAds_ZTAT899DIL143WP_280623</t>
+    <t>Marketing_House Warming Gift Ideas Carosel_12/03/24</t>
+  </si>
+  <si>
+    <t>New Product_Stars And Stripes, Fist Bump - Birthday, Loving Gift For Dad, Father, Grandfather, Grandpa - Personalized Tape Measure_TMNN429HEL971WP_28/03/24</t>
+  </si>
+  <si>
+    <t>Marketing_Memorial Gift Ideas Image_11/03/24 - Copy</t>
+  </si>
+  <si>
+    <t>You Are My Love I Married You Because I Can't Live Without You Husband Wife - Gift For Couples - Personalized Custom Fleece Blanket_VideoAds_FBAK671NAH1961WP_1403</t>
+  </si>
+  <si>
+    <t>Dear Mom Great Job I'm Awesome Thank You - Mother Gift - Personalized Custom T Shirt_05/04</t>
+  </si>
+  <si>
+    <t>Kiet Pets 1</t>
+  </si>
+  <si>
+    <t>Patio Welcome Grilling Proudly Serving Whatever You Bring - Backyard Sign - Personalized Custom Classic Metal Signs_MSAK391NAH949WP_16/11</t>
+  </si>
+  <si>
+    <t>Home Is Where We Park It - Family Gifts For Couples, Husband, Wife, Camping Lovers - Personalized Doormat_VideoAds_DMTN1029NAH2410WP_280723</t>
+  </si>
+  <si>
+    <t>Marketing_Happy St Patrick's Day - Summer Vibe Image_17/03/24 - Copy</t>
+  </si>
+  <si>
+    <t>Marketing_Gifts for Travel Lovers Image_28/02/24</t>
+  </si>
+  <si>
+    <t>You Were My Favorite Hello And Hardest Goodbye - Christmas Memorial Gift - Personalized Custom Shaped Acrylic Ornament_AUNT050DIL242WP_29/08/23</t>
+  </si>
+  <si>
+    <t>Dad, Papa, Daddy Stars And Stripes - Gift For Father, Grandpa - Personalized T Shirt_TSTR193ELE3063WP_22/03/24</t>
+  </si>
+  <si>
+    <t>Stars &amp; Stripes, Best Dad Ever Punching Hand - Gift For Father, Daddy - Personalized Tape Measure_TMNA344HEL974WP_02/04/24</t>
+  </si>
+  <si>
+    <t>First Mom Now Grandma Stars And Stripes - Gift For Mothers, Grandmas, Aunties - Personalized T Shirt_VideoAdsR_TSTR184ELE3001WP_050424</t>
+  </si>
+  <si>
+    <t>Ecomy Gift PTE 04 _UK Time</t>
+  </si>
+  <si>
+    <t>Runagain_Querido Pai Ótimo Trabalho Nós Somos Incríveis Obrigado Jovem - T Shirt Personalizado_TSBD893HAL1390WP_01/03/24</t>
+  </si>
+  <si>
+    <t>Daddy Papa Stars And Stripes - Gift For Father, Grandpa, Grandfather - Personalized Classic Cap_CPTN1227ELE3128WP_10/04/24</t>
+  </si>
+  <si>
+    <t>Keys To The Camper Dogs Cats - Anniversary, Loving Gifts For Couples, Husband, Wife, Camping Lovers - Personalized Aluminum Keychain_VideoAds_LDAK812NAH2477WP_190823</t>
   </si>
   <si>
     <t>Started With A Message - Gift For Couple - Personalized Mug_WMHT357CIN2284WP_28/03/24</t>
   </si>
   <si>
-    <t>Marketing_House Warming Gift Ideas Carosel_12/03/24</t>
-  </si>
-  <si>
-    <t>New Product_Stars And Stripes, Fist Bump - Birthday, Loving Gift For Dad, Father, Grandfather, Grandpa - Personalized Tape Measure_TMNN429HEL971WP_28/03/24</t>
+    <t>You And Me And The Dogs Peace Beach View - Gift For Pet Lovers - Personalized Wood Rectangle Sign_WPHC064NGO1532WP_05/08/23</t>
+  </si>
+  <si>
+    <t>Couple Chibi Our Snuggle Blanket - Gift For Couples, Anniversary, Birthday Gift - Personalized Custom Fleece Blanket_FBGT150CIN1131WP_05/01</t>
+  </si>
+  <si>
+    <t>Home Is Where We Park It You And Me And The Dogs - Gift For Camping Lovers - Personalized Doormat_VideoAds_DMHC050NGO1503WP_210723</t>
   </si>
   <si>
     <t>New product_Best Dog Dad Ever - Gift For Men Who Love Dogs, Pet Lovers - Personalized Polo Shirt_PRNV853HAL2119WP_26/03/24</t>
   </si>
   <si>
-    <t>What Day Is Today Who Cares Retired - Retirement Gift - Personalized Custom T Shirt_TSCT324HAL715WP_01/04</t>
-  </si>
-  <si>
-    <t>Papa Bear - Birthday, Loving Gift For Dad, Father, Papa, Grandpa, Grandfather - Personalized Lowball Tumbler_TWYN445ELE3122WP_04/04/24</t>
-  </si>
-  <si>
-    <t>Dear Dad Great Job We're Awesome Thank You Young - Father Gift - Personalized Custom T Shirt_TSBD577HAL759WP_09/05</t>
-  </si>
-  <si>
     <t>Just A Girl Boy Who Loves Traveling - Birthday Gift For Him, Her, Vacation Lovers - Personalized Custom Passport Cover, Passport Holder_PCAH305ELE2167WP_14/04</t>
   </si>
   <si>
-    <t>Stars &amp; Stripes, Best Dad Ever Punching Hand - Gift For Father, Daddy - Personalized Tape Measure_TMNA344HEL974WP_02/04/24</t>
+    <t>Yoga Girl Morning Affirmations - Gift For Yourself, Gift For Women - Personalized Fleece Blanket_VideoAds_FBTT796NEL1490WP_040823</t>
+  </si>
+  <si>
+    <t>Reading Chibi Girl Just A Girl Who Loves Books - Personalized Custom Pillow_PLNT058CIN558WP_10/12</t>
+  </si>
+  <si>
+    <t>Best Dad Ever - Gift For Father, Grandpa - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_VideoAds_EMVA796HAL2109WP_280324</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>Marketing_International Women's Day - Gift for Her Carosel_08/03/24 - Copy</t>
+  </si>
+  <si>
+    <t>Marketing_International Women's Day - Gift for Her Image_08/03/24</t>
+  </si>
+  <si>
+    <t>Marketing_Memorial Gift Ideas Carosel_11/03/24 - Copy 2</t>
+  </si>
+  <si>
+    <t>Dad, Papa, Daddy We Love You Stars And Stripes - Gift For Father, Grandpa - Personalized T Shirt_VideoAds_TSTR200ELE3084WP_040424</t>
+  </si>
+  <si>
+    <t>Best Mom Ever - Gift For Mother, Grandma - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_EMTR206HAL2134WP_29/03/24</t>
+  </si>
+  <si>
+    <t>Custom Photo Camping Buddy - Gift For Camping Mom, Dad - Personalized Aluminum Keychain_LDTK243NEL2217WP_06/04/24</t>
   </si>
   <si>
     <t>Dad, Papa, Daddy Stars And Stripes - Gift For Father, Grandpa - Personalized T Shirt_VideoAds_TSTR193ELE3063WP_030424</t>
-  </si>
-  <si>
-    <t>7-day click, 1-day view or 1-day engaged view</t>
-  </si>
-  <si>
-    <t>Marketing_Memorial Gift Ideas Image_11/03/24 - Copy</t>
-  </si>
-  <si>
-    <t>Marketing_Gifts for Travel Lovers Image_28/02/24</t>
-  </si>
-  <si>
-    <t>Marketing_Happy St Patrick's Day - Summer Vibe Image_17/03/24 - Copy</t>
-  </si>
-  <si>
-    <t>Dad, Papa, Daddy Stars And Stripes - Gift For Father, Grandpa - Personalized T Shirt_TSTR193ELE3063WP_22/03/24</t>
-  </si>
-  <si>
-    <t>You Are My Love I Married You Because I Can't Live Without You Husband Wife - Gift For Couples - Personalized Custom Fleece Blanket_VideoAds_FBAK671NAH1961WP_1403</t>
-  </si>
-  <si>
-    <t>Home Is Where We Park It - Family Gifts For Couples, Husband, Wife, Camping Lovers - Personalized Doormat_VideoAds_DMTN1029NAH2410WP_280723</t>
-  </si>
-  <si>
-    <t>Dad, Papa, Daddy We Love You Stars And Stripes - Gift For Father, Grandpa - Personalized T Shirt_VideoAds_TSTR200ELE3084WP_040424</t>
-  </si>
-  <si>
-    <t>It's Not A Dad Bod It's A Father Figure - Birthday, Loving Gift For Dad, Father, Papa, Grandpa, Grandfather - Personalized Lowball Tumbler_TWYN446ELE3123WP_04/04/24</t>
-  </si>
-  <si>
-    <t>You Were My Favorite Hello And Hardest Goodbye - Christmas Memorial Gift - Personalized Custom Shaped Acrylic Ornament_AUNT050DIL242WP_29/08/23</t>
-  </si>
-  <si>
-    <t>Kiet Pets 1</t>
-  </si>
-  <si>
-    <t>Patio Welcome Grilling Proudly Serving Whatever You Bring - Backyard Sign - Personalized Custom Classic Metal Signs_MSAK391NAH949WP_16/11</t>
-  </si>
-  <si>
-    <t>Reading Chibi Just A Girl Who Loves Books - Personalized Custom Fleece Blanket_VideoAds_FBMN683CIN1005WP_1705</t>
-  </si>
-  <si>
-    <t>Dear Mom Great Job I'm Awesome Thank You - Mother Gift - Personalized Custom T Shirt_05/04</t>
-  </si>
-  <si>
-    <t>First Mom Now Grandma Stars And Stripes - Gift For Mothers, Grandmas, Aunties - Personalized T Shirt_VideoAdsR_TSTR184ELE3001WP_050424</t>
-  </si>
-  <si>
-    <t>Best Papa Bear Ever - Birthday Gift For Father, Grandpa - Personalized T Shirt_VideoAds_TKTR188ELE3042WP_280324</t>
-  </si>
-  <si>
-    <t>Couple Chibi Our Snuggle Blanket - Gift For Couples, Anniversary, Birthday Gift - Personalized Custom Fleece Blanket_FBGT150CIN1131WP_05/01</t>
-  </si>
-  <si>
-    <t>Keys To The Camper Dogs Cats - Anniversary, Loving Gifts For Couples, Husband, Wife, Camping Lovers - Personalized Aluminum Keychain_VideoAds_LDAK812NAH2477WP_190823</t>
-  </si>
-  <si>
-    <t>You And Me And The Dogs Peace Beach View - Gift For Pet Lovers - Personalized Wood Rectangle Sign_WPHC064NGO1532WP_05/08/23</t>
-  </si>
-  <si>
-    <t>Marketing_International Women's Day - Gift for Her Carosel_08/03/24 - Copy</t>
-  </si>
-  <si>
-    <t>Marketing_International Women's Day - Gift for Her Image_08/03/24</t>
-  </si>
-  <si>
-    <t>Marketing_Memorial Gift Ideas Carosel_11/03/24 - Copy 2</t>
-  </si>
-  <si>
-    <t>Marketing_Sale off Collection Carosel_17/07</t>
-  </si>
-  <si>
-    <t>inactive</t>
-  </si>
-  <si>
-    <t>Reading Chibi Girl Just A Girl Who Loves Books - Personalized Custom Pillow_PLNT058CIN558WP_10/12</t>
-  </si>
-  <si>
-    <t>Home Is Where We Park It You And Me And The Dogs - Gift For Camping Lovers - Personalized Doormat_VideoAds_DMHC050NGO1503WP_210723</t>
-  </si>
-  <si>
-    <t>Ecomy Gift PTE 04 _UK Time</t>
-  </si>
-  <si>
-    <t>Runagain_Querido Pai Ótimo Trabalho Nós Somos Incríveis Obrigado Jovem - T Shirt Personalizado_TSBD893HAL1390WP_01/03/24</t>
-  </si>
-  <si>
-    <t>Best Dad Ever - Gift For Father, Grandpa - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_VideoAds_EMVA796HAL2109WP_280324</t>
-  </si>
-  <si>
-    <t>Best Mom Ever - Gift For Mother, Grandma - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_EMTR206HAL2134WP_29/03/24</t>
-  </si>
-  <si>
-    <t>Yoga Girl Morning Affirmations - Gift For Yourself, Gift For Women - Personalized Fleece Blanket_VideoAds_FBTT796NEL1490WP_040823</t>
-  </si>
-  <si>
-    <t>Kiet Hobbies 1</t>
-  </si>
-  <si>
-    <t>Chibi Girl I'm A Book Reader - Book Lovers Gift - Personalized Custom Wine Tumbler_04/03</t>
-  </si>
-  <si>
-    <t>First Dad Now Papa Stars And Stripes - Gift For Father, Grandpa, Grandfather - Personalized T Shirt_VideoAds_TSTR191ELE3061WP_020424</t>
-  </si>
-  <si>
-    <t>If Friends Were Flowers Gardening - BFF Bestie Gift - Personalized Custom Wine Tumbler_04/03</t>
-  </si>
-  <si>
-    <t>Runagain_Abuelo Abuelito Tito Tata Yayo Abue Agüelo Viejo Viejito Papá - T Shirt Personalizado_TSHP073HAL1379WP_01/03/24</t>
-  </si>
-  <si>
-    <t>First Mom Now Grandma Sunflower - Gift For Mothers, Grandmas, Aunties - Personalized T Shirt_TSYN427ELE3079WP_23/03/24</t>
-  </si>
-  <si>
-    <t>Best Dad Papa Ever - Birthday Gift For Father, Grandpa - Personalized T Shirt_VideoAds_TKTR187ELE3023WP_280324</t>
-  </si>
-  <si>
-    <t>Best Dad Papa Ever - Birthday Gift For Father, Grandpa - Personalized T Shirt_TKTR187ELE3023WP_19/03/24</t>
-  </si>
-  <si>
-    <t>Papa Bear - Birthday, Loving Gift For Dad, Father, Papa, Grandpa, Grandfather - Personalized Classic Cap_VideoAds_CPAH623ELE3032WP_280324</t>
   </si>
 </sst>
 </file>
@@ -767,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -830,19 +812,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>1516264.0</v>
+        <v>3305250.0</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>1703039.0</v>
+        <v>3837347.0</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>1.12318106</v>
+        <v>1.1609854</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>8003.02</v>
+        <v>17069.05</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
@@ -859,25 +841,25 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" s="6" t="n">
-        <v>230768.0</v>
+        <v>507654.0</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>280788.0</v>
+        <v>597257.0</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>1.21675449</v>
+        <v>1.17650408</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="8" t="n">
-        <v>2074.65</v>
+        <v>3543.71</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
@@ -894,25 +876,25 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>232661.0</v>
+        <v>168491.0</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>282518.0</v>
+        <v>200362.0</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>1.21429032</v>
+        <v>1.1891555</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="8" t="n">
-        <v>1995.55</v>
+        <v>1450.04</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
@@ -935,19 +917,19 @@
         <v>22</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>82476.0</v>
+        <v>144639.0</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>95018.0</v>
+        <v>160438.0</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>1.15206848</v>
+        <v>1.10923057</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="8" t="n">
-        <v>846.2</v>
+        <v>1080.24</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
@@ -964,25 +946,25 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>133124.0</v>
+        <v>75367.0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>151667.0</v>
+        <v>86886.0</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>1.13929119</v>
+        <v>1.15283878</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>760.47</v>
+        <v>789.16</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
@@ -999,25 +981,25 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>71015.0</v>
+        <v>127561.0</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>80260.0</v>
+        <v>140131.0</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>1.13018376</v>
+        <v>1.09854109</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>730.37</v>
+        <v>683.97</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
@@ -1034,25 +1016,25 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>86532.0</v>
+        <v>72532.0</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>100071.0</v>
+        <v>85867.0</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>1.15646235</v>
+        <v>1.18384989</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="8" t="n">
-        <v>588.72</v>
+        <v>657.21</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>14</v>
@@ -1075,22 +1057,22 @@
         <v>28</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>64630.0</v>
+        <v>45648.0</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>110444.0</v>
+        <v>83691.0</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>1.70886585</v>
+        <v>1.83339905</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>585.65</v>
+        <v>594.2</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>15</v>
@@ -1107,25 +1089,25 @@
         <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>36041.0</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>63787.0</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>1.76984545</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>592.58</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>71460.0</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>118560.0</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>1.65910999</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="8" t="n">
-        <v>585.3</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>15</v>
@@ -1142,25 +1124,25 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>32386.0</v>
+        <v>70315.0</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>58008.0</v>
+        <v>115924.0</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>1.79114432</v>
+        <v>1.64863827</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>583.65</v>
+        <v>591.2</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>15</v>
@@ -1180,22 +1162,22 @@
         <v>32</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>35099.0</v>
+        <v>69455.0</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>58862.0</v>
+        <v>115878.0</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>1.67702784</v>
+        <v>1.6683896</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="8" t="n">
-        <v>582.2</v>
+        <v>587.38</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>15</v>
@@ -1215,19 +1197,19 @@
         <v>34</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>145544.0</v>
+        <v>149116.0</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>170375.0</v>
+        <v>172557.0</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>1.1706082</v>
+        <v>1.15719976</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>556.3</v>
+        <v>562.39</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>14</v>
@@ -1250,19 +1232,19 @@
         <v>35</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>78668.0</v>
+        <v>79927.0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>93808.0</v>
+        <v>87823.0</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>1.19245437</v>
+        <v>1.09879015</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="8" t="n">
-        <v>487.92</v>
+        <v>520.21</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>14</v>
@@ -1279,25 +1261,25 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>65927.0</v>
+        <v>55678.0</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>77056.0</v>
+        <v>62534.0</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>1.16880792</v>
+        <v>1.12313661</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="8" t="n">
-        <v>392.9</v>
+        <v>441.44</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>14</v>
@@ -1314,25 +1296,25 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>37227.0</v>
+        <v>53556.0</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>44432.0</v>
+        <v>62346.0</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>1.19354232</v>
+        <v>1.16412727</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="8" t="n">
-        <v>385.15</v>
+        <v>428.45</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>14</v>
@@ -1355,19 +1337,19 @@
         <v>38</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>58001.0</v>
+        <v>51215.0</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>68731.0</v>
+        <v>60927.0</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>1.18499681</v>
+        <v>1.18963194</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="8" t="n">
-        <v>384.3</v>
+        <v>323.21</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>14</v>
@@ -1384,25 +1366,25 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>37013.0</v>
+        <v>19576.0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>43770.0</v>
+        <v>27778.0</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>1.18255748</v>
+        <v>1.41898243</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>340.8</v>
+        <v>322.17</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>14</v>
@@ -1419,25 +1401,25 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20140.0</v>
+        <v>35071.0</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27619.0</v>
+        <v>43448.0</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>1.37135055</v>
+        <v>1.23885832</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="8" t="n">
-        <v>313.41</v>
+        <v>272.13</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>14</v>
@@ -1454,25 +1436,25 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="C20" s="6" t="n">
-        <v>17017.0</v>
+        <v>31389.0</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>46510.0</v>
+        <v>34923.0</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>2.7331492</v>
+        <v>1.11258721</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="8" t="n">
-        <v>291.34</v>
+        <v>248.97</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>14</v>
@@ -1489,25 +1471,25 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>26709.0</v>
+        <v>26127.0</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>64974.0</v>
+        <v>55998.0</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>2.43266315</v>
+        <v>2.14330003</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="8" t="n">
-        <v>290.37</v>
+        <v>239.24</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>14</v>
@@ -1524,25 +1506,25 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="6" t="n">
-        <v>33584.0</v>
+        <v>14701.0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>40501.0</v>
+        <v>26064.0</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>1.20596117</v>
+        <v>1.77294062</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="8" t="n">
-        <v>286.6</v>
+        <v>238.86</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>14</v>
@@ -1559,25 +1541,25 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>31511.0</v>
+        <v>15509.0</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>39684.0</v>
+        <v>40628.0</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>1.25936974</v>
+        <v>2.61964021</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="8" t="n">
-        <v>267.52</v>
+        <v>238.09</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>14</v>
@@ -1600,19 +1582,19 @@
         <v>46</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>24049.0</v>
+        <v>41261.0</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>28129.0</v>
+        <v>44818.0</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>1.16965362</v>
+        <v>1.08620731</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="8" t="n">
-        <v>266.79</v>
+        <v>237.86</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>14</v>
@@ -1629,25 +1611,25 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>12068.0</v>
+        <v>28041.0</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>16500.0</v>
+        <v>33413.0</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>1.36725224</v>
+        <v>1.19157662</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="8" t="n">
-        <v>240.35</v>
+        <v>214.58</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>14</v>
@@ -1664,25 +1646,25 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="6" t="n">
-        <v>15612.0</v>
+        <v>18850.0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>21877.0</v>
+        <v>24466.0</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>1.40129388</v>
+        <v>1.29793103</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="8" t="n">
-        <v>239.7</v>
+        <v>187.45</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>14</v>
@@ -1699,25 +1681,25 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>22638.0</v>
+        <v>8950.0</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>30962.0</v>
+        <v>10923.0</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>1.36770033</v>
+        <v>1.22044693</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="8" t="n">
-        <v>239.66</v>
+        <v>183.4</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>14</v>
@@ -1734,25 +1716,25 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="6" t="n">
-        <v>66125.0</v>
+        <v>55465.0</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>121322.0</v>
+        <v>88097.0</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>1.83473724</v>
+        <v>1.58833499</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="8" t="n">
-        <v>238.6</v>
+        <v>182.99</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>14</v>
@@ -1769,25 +1751,25 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="6" t="n">
-        <v>14951.0</v>
+        <v>10954.0</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>24703.0</v>
+        <v>13411.0</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>1.65226406</v>
+        <v>1.22430162</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="8" t="n">
-        <v>234.21</v>
+        <v>179.87</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>14</v>
@@ -1804,25 +1786,25 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="6" t="n">
-        <v>30473.0</v>
+        <v>23838.0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>33861.0</v>
+        <v>38545.0</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>1.11118039</v>
+        <v>1.61695612</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="8" t="n">
-        <v>233.94</v>
+        <v>178.11</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>14</v>
@@ -1845,19 +1827,19 @@
         <v>53</v>
       </c>
       <c r="C31" s="6" t="n">
-        <v>35182.0</v>
+        <v>15893.0</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>39108.0</v>
+        <v>18444.0</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>1.11159115</v>
+        <v>1.16051092</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="8" t="n">
-        <v>230.04</v>
+        <v>177.0</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>14</v>
@@ -1874,25 +1856,25 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="6" t="n">
-        <v>28122.0</v>
+        <v>55021.0</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>32367.0</v>
+        <v>106830.0</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>1.15094943</v>
+        <v>1.94162229</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="8" t="n">
-        <v>216.08</v>
+        <v>176.88</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>14</v>
@@ -1909,25 +1891,25 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="6" t="n">
-        <v>604796.0</v>
+        <v>11489.0</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>845553.0</v>
+        <v>16012.0</v>
       </c>
       <c r="E33" s="7" t="n">
-        <v>1.39807968</v>
+        <v>1.39368091</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="8" t="n">
-        <v>203.14</v>
+        <v>174.64</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>14</v>
@@ -1944,25 +1926,25 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>11948.0</v>
+        <v>502198.0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>15265.0</v>
+        <v>675885.0</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>1.27761969</v>
+        <v>1.34585363</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="8" t="n">
-        <v>199.56</v>
+        <v>165.49</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>14</v>
@@ -1979,25 +1961,25 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>22908.0</v>
+        <v>7517.0</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>34975.0</v>
+        <v>10313.0</v>
       </c>
       <c r="E35" s="7" t="n">
-        <v>1.52675921</v>
+        <v>1.3719569</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="8" t="n">
-        <v>196.35</v>
+        <v>165.34</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>14</v>
@@ -2014,25 +1996,25 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="6" t="n">
-        <v>25999.0</v>
+        <v>64517.0</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>28502.0</v>
+        <v>115541.0</v>
       </c>
       <c r="E36" s="7" t="n">
-        <v>1.09627293</v>
+        <v>1.79086132</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="8" t="n">
-        <v>191.61</v>
+        <v>158.89</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>14</v>
@@ -2049,25 +2031,25 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>16694.0</v>
+        <v>26580.0</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>22791.0</v>
+        <v>43456.0</v>
       </c>
       <c r="E37" s="7" t="n">
-        <v>1.36522104</v>
+        <v>1.63491347</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="8" t="n">
-        <v>182.9</v>
+        <v>151.31</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>14</v>
@@ -2084,25 +2066,25 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="6" t="n">
-        <v>16679.0</v>
+        <v>6834.0</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>21424.0</v>
+        <v>8598.0</v>
       </c>
       <c r="E38" s="7" t="n">
-        <v>1.28448948</v>
+        <v>1.25812116</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="8" t="n">
-        <v>182.54</v>
+        <v>150.87</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>14</v>
@@ -2119,28 +2101,28 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C39" s="6" t="n">
-        <v>16662.0</v>
+        <v>7109.0</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>22724.0</v>
+        <v>13618.0</v>
       </c>
       <c r="E39" s="7" t="n">
-        <v>1.36382187</v>
+        <v>1.91559994</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="8" t="n">
-        <v>181.72</v>
+        <v>150.04</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>15</v>
@@ -2154,25 +2136,25 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C40" s="6" t="n">
-        <v>17573.0</v>
+        <v>20182.0</v>
       </c>
       <c r="D40" s="6" t="n">
-        <v>25293.0</v>
+        <v>23597.0</v>
       </c>
       <c r="E40" s="7" t="n">
-        <v>1.43931031</v>
+        <v>1.16921019</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="8" t="n">
-        <v>181.65</v>
+        <v>149.47</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>14</v>
@@ -2189,25 +2171,25 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" s="6" t="n">
-        <v>24685.0</v>
+        <v>17310.0</v>
       </c>
       <c r="D41" s="6" t="n">
-        <v>39611.0</v>
+        <v>23772.0</v>
       </c>
       <c r="E41" s="7" t="n">
-        <v>1.6046587</v>
+        <v>1.37331023</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="8" t="n">
-        <v>175.95</v>
+        <v>149.33</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>14</v>
@@ -2224,25 +2206,25 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C42" s="6" t="n">
-        <v>10716.0</v>
+        <v>15255.0</v>
       </c>
       <c r="D42" s="6" t="n">
-        <v>14837.0</v>
+        <v>25235.0</v>
       </c>
       <c r="E42" s="7" t="n">
-        <v>1.38456514</v>
+        <v>1.65421173</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="8" t="n">
-        <v>172.4</v>
+        <v>148.85</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>14</v>
@@ -2259,25 +2241,25 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" s="6" t="n">
-        <v>16052.0</v>
+        <v>21853.0</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>19531.0</v>
+        <v>24932.0</v>
       </c>
       <c r="E43" s="7" t="n">
-        <v>1.21673312</v>
+        <v>1.14089599</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="8" t="n">
-        <v>147.91</v>
+        <v>148.59</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>14</v>
@@ -2294,25 +2276,25 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C44" s="6" t="n">
-        <v>15537.0</v>
+        <v>15459.0</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>19428.0</v>
+        <v>21973.0</v>
       </c>
       <c r="E44" s="7" t="n">
-        <v>1.25043445</v>
+        <v>1.42137266</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="8" t="n">
-        <v>146.52</v>
+        <v>148.24</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>14</v>
@@ -2329,25 +2311,25 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="6" t="n">
-        <v>13425.0</v>
+        <v>19314.0</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>15544.0</v>
+        <v>26176.0</v>
       </c>
       <c r="E45" s="7" t="n">
-        <v>1.15783985</v>
+        <v>1.35528632</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="8" t="n">
-        <v>146.17</v>
+        <v>147.21</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>14</v>
@@ -2364,28 +2346,28 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C46" s="6" t="n">
-        <v>5901.0</v>
+        <v>9073.0</v>
       </c>
       <c r="D46" s="6" t="n">
-        <v>11606.0</v>
+        <v>10885.0</v>
       </c>
       <c r="E46" s="7" t="n">
-        <v>1.96678529</v>
+        <v>1.19971344</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="8" t="n">
-        <v>146.11</v>
+        <v>133.71</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>15</v>
@@ -2399,25 +2381,25 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C47" s="6" t="n">
-        <v>13618.0</v>
+        <v>38815.0</v>
       </c>
       <c r="D47" s="6" t="n">
-        <v>22504.0</v>
+        <v>66572.0</v>
       </c>
       <c r="E47" s="7" t="n">
-        <v>1.65251873</v>
+        <v>1.71511014</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="8" t="n">
-        <v>146.04</v>
+        <v>128.57</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>14</v>
@@ -2434,25 +2416,25 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C48" s="6" t="n">
-        <v>12663.0</v>
+        <v>11380.0</v>
       </c>
       <c r="D48" s="6" t="n">
-        <v>15336.0</v>
+        <v>13229.0</v>
       </c>
       <c r="E48" s="7" t="n">
-        <v>1.21108742</v>
+        <v>1.16247803</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="8" t="n">
-        <v>145.95</v>
+        <v>125.91</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>14</v>
@@ -2469,25 +2451,25 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C49" s="6" t="n">
-        <v>15590.0</v>
+        <v>11383.0</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>18819.0</v>
+        <v>15180.0</v>
       </c>
       <c r="E49" s="7" t="n">
-        <v>1.20711995</v>
+        <v>1.3335676</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="8" t="n">
-        <v>143.28</v>
+        <v>120.39</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>14</v>
@@ -2504,25 +2486,25 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C50" s="6" t="n">
-        <v>18196.0</v>
+        <v>7424.0</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>32743.0</v>
+        <v>8928.0</v>
       </c>
       <c r="E50" s="7" t="n">
-        <v>1.79946142</v>
+        <v>1.20258621</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="8" t="n">
-        <v>140.22</v>
+        <v>118.94</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>14</v>
@@ -2539,25 +2521,25 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C51" s="6" t="n">
-        <v>710694.0</v>
+        <v>10149.0</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>850576.0</v>
+        <v>12114.0</v>
       </c>
       <c r="E51" s="7" t="n">
-        <v>1.19682451</v>
+        <v>1.19361513</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G51" s="8" t="n">
-        <v>125.38</v>
+        <v>118.71</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>14</v>
@@ -2574,25 +2556,25 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C52" s="6" t="n">
-        <v>433392.0</v>
+        <v>7224.0</v>
       </c>
       <c r="D52" s="6" t="n">
-        <v>559998.0</v>
+        <v>9009.0</v>
       </c>
       <c r="E52" s="7" t="n">
-        <v>1.29212814</v>
+        <v>1.24709302</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="8" t="n">
-        <v>124.53</v>
+        <v>113.22</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>14</v>
@@ -2609,25 +2591,25 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C53" s="6" t="n">
-        <v>517321.0</v>
+        <v>13331.0</v>
       </c>
       <c r="D53" s="6" t="n">
-        <v>670004.0</v>
+        <v>15524.0</v>
       </c>
       <c r="E53" s="7" t="n">
-        <v>1.2951417</v>
+        <v>1.16450379</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G53" s="8" t="n">
-        <v>123.85</v>
+        <v>107.48</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>14</v>
@@ -2644,25 +2626,25 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C54" s="6" t="n">
-        <v>8079.0</v>
+        <v>637161.0</v>
       </c>
       <c r="D54" s="6" t="n">
-        <v>10906.0</v>
+        <v>714902.0</v>
       </c>
       <c r="E54" s="7" t="n">
-        <v>1.34991954</v>
+        <v>1.12201155</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G54" s="8" t="n">
-        <v>119.88</v>
+        <v>103.31</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>14</v>
@@ -2679,25 +2661,25 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="6" t="n">
-        <v>8923.0</v>
+        <v>374186.0</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>10225.0</v>
+        <v>489913.0</v>
       </c>
       <c r="E55" s="7" t="n">
-        <v>1.14591505</v>
+        <v>1.30927667</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="8" t="n">
-        <v>117.03</v>
+        <v>102.4</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>14</v>
@@ -2714,25 +2696,25 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C56" s="6" t="n">
-        <v>12435.0</v>
+        <v>505506.0</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>15276.0</v>
+        <v>623374.0</v>
       </c>
       <c r="E56" s="7" t="n">
-        <v>1.22846803</v>
+        <v>1.23316835</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G56" s="8" t="n">
-        <v>107.23</v>
+        <v>101.63</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>14</v>
@@ -2749,25 +2731,25 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C57" s="6" t="n">
-        <v>11917.0</v>
+        <v>13315.0</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>13167.0</v>
+        <v>16633.0</v>
       </c>
       <c r="E57" s="7" t="n">
-        <v>1.10489217</v>
+        <v>1.24919264</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="8" t="n">
-        <v>105.33</v>
+        <v>94.38</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>14</v>
@@ -2784,25 +2766,25 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C58" s="6" t="n">
-        <v>4797.0</v>
+        <v>6774.0</v>
       </c>
       <c r="D58" s="6" t="n">
-        <v>5893.0</v>
+        <v>7847.0</v>
       </c>
       <c r="E58" s="7" t="n">
-        <v>1.22847613</v>
+        <v>1.15839976</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="8" t="n">
-        <v>88.45</v>
+        <v>89.96</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>14</v>
@@ -2819,25 +2801,25 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C59" s="6" t="n">
-        <v>17133.0</v>
+        <v>7501.0</v>
       </c>
       <c r="D59" s="6" t="n">
-        <v>23663.0</v>
+        <v>8727.0</v>
       </c>
       <c r="E59" s="7" t="n">
-        <v>1.38113582</v>
+        <v>1.16344487</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="8" t="n">
-        <v>87.9</v>
+        <v>89.68</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>14</v>
@@ -2854,25 +2836,25 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="C60" s="6" t="n">
-        <v>7820.0</v>
+        <v>16200.0</v>
       </c>
       <c r="D60" s="6" t="n">
-        <v>9859.0</v>
+        <v>23765.0</v>
       </c>
       <c r="E60" s="7" t="n">
-        <v>1.26074169</v>
+        <v>1.46697531</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="8" t="n">
-        <v>78.0</v>
+        <v>88.94</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>14</v>
@@ -2889,25 +2871,25 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="6" t="n">
-        <v>3469.0</v>
+        <v>12193.0</v>
       </c>
       <c r="D61" s="6" t="n">
-        <v>4127.0</v>
+        <v>13840.0</v>
       </c>
       <c r="E61" s="7" t="n">
-        <v>1.18968002</v>
+        <v>1.1350775</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="8" t="n">
-        <v>73.22</v>
+        <v>83.39</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>14</v>
@@ -2924,28 +2906,28 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C62" s="6" t="n">
-        <v>4445.0</v>
+        <v>3643.0</v>
       </c>
       <c r="D62" s="6" t="n">
-        <v>5548.0</v>
+        <v>6720.0</v>
       </c>
       <c r="E62" s="7" t="n">
-        <v>1.24814398</v>
+        <v>1.84463354</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G62" s="8" t="n">
-        <v>65.65</v>
+        <v>83.16</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>15</v>
@@ -2959,25 +2941,25 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" s="6" t="n">
-        <v>7314.0</v>
+        <v>9534.0</v>
       </c>
       <c r="D63" s="6" t="n">
-        <v>8857.0</v>
+        <v>11760.0</v>
       </c>
       <c r="E63" s="7" t="n">
-        <v>1.21096527</v>
+        <v>1.23348018</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G63" s="8" t="n">
-        <v>64.93</v>
+        <v>81.08</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>14</v>
@@ -2994,25 +2976,25 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" s="6" t="n">
-        <v>10567.0</v>
+        <v>4212.0</v>
       </c>
       <c r="D64" s="6" t="n">
-        <v>14889.0</v>
+        <v>4713.0</v>
       </c>
       <c r="E64" s="7" t="n">
-        <v>1.40900918</v>
+        <v>1.11894587</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G64" s="8" t="n">
-        <v>54.92</v>
+        <v>67.44</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>14</v>
@@ -3029,25 +3011,25 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="6" t="n">
-        <v>3717.0</v>
+        <v>7041.0</v>
       </c>
       <c r="D65" s="6" t="n">
-        <v>4656.0</v>
+        <v>8804.0</v>
       </c>
       <c r="E65" s="7" t="n">
-        <v>1.25262308</v>
+        <v>1.25039057</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G65" s="8" t="n">
-        <v>50.57</v>
+        <v>67.38</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>14</v>
@@ -3064,25 +3046,25 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="6" t="n">
-        <v>2877.0</v>
+        <v>14339.0</v>
       </c>
       <c r="D66" s="6" t="n">
-        <v>3872.0</v>
+        <v>28145.0</v>
       </c>
       <c r="E66" s="7" t="n">
-        <v>1.34584637</v>
+        <v>1.96282865</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G66" s="8" t="n">
-        <v>46.02</v>
+        <v>66.85</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>14</v>
@@ -3099,25 +3081,25 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="6" t="n">
-        <v>3936.0</v>
+        <v>5214.0</v>
       </c>
       <c r="D67" s="6" t="n">
-        <v>4986.0</v>
+        <v>6952.0</v>
       </c>
       <c r="E67" s="7" t="n">
-        <v>1.26676829</v>
+        <v>1.33333333</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="8" t="n">
-        <v>44.42</v>
+        <v>60.03</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>14</v>
@@ -3134,25 +3116,25 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="6" t="n">
-        <v>1910.0</v>
+        <v>6476.0</v>
       </c>
       <c r="D68" s="6" t="n">
-        <v>2608.0</v>
+        <v>9452.0</v>
       </c>
       <c r="E68" s="7" t="n">
-        <v>1.36544503</v>
+        <v>1.45954293</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="8" t="n">
-        <v>41.27</v>
+        <v>59.7</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>14</v>
@@ -3169,25 +3151,25 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" s="6" t="n">
-        <v>3147.0</v>
+        <v>5917.0</v>
       </c>
       <c r="D69" s="6" t="n">
-        <v>3650.0</v>
+        <v>6982.0</v>
       </c>
       <c r="E69" s="7" t="n">
-        <v>1.15983476</v>
+        <v>1.17998986</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G69" s="8" t="n">
-        <v>41.16</v>
+        <v>57.21</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>14</v>
@@ -3204,25 +3186,25 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" s="6" t="n">
-        <v>2580.0</v>
+        <v>1833.0</v>
       </c>
       <c r="D70" s="6" t="n">
-        <v>2912.0</v>
+        <v>2460.0</v>
       </c>
       <c r="E70" s="7" t="n">
-        <v>1.12868217</v>
+        <v>1.34206219</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G70" s="8" t="n">
-        <v>40.58</v>
+        <v>52.83</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>14</v>
@@ -3239,25 +3221,25 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="6" t="n">
-        <v>2047.0</v>
+        <v>36977.0</v>
       </c>
       <c r="D71" s="6" t="n">
-        <v>3149.0</v>
+        <v>66852.0</v>
       </c>
       <c r="E71" s="7" t="n">
-        <v>1.5383488</v>
+        <v>1.80793466</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="8" t="n">
-        <v>39.65</v>
+        <v>40.45</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>14</v>
@@ -3274,28 +3256,28 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72" s="6" t="n">
-        <v>1649.0</v>
+        <v>3356.0</v>
       </c>
       <c r="D72" s="6" t="n">
-        <v>2276.0</v>
+        <v>4244.0</v>
       </c>
       <c r="E72" s="7" t="n">
-        <v>1.38023044</v>
+        <v>1.26460072</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G72" s="8" t="n">
-        <v>38.17</v>
+        <v>39.57</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>15</v>
@@ -3309,25 +3291,25 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C73" s="6" t="n">
-        <v>2232.0</v>
+        <v>1794.0</v>
       </c>
       <c r="D73" s="6" t="n">
-        <v>2678.0</v>
+        <v>2275.0</v>
       </c>
       <c r="E73" s="7" t="n">
-        <v>1.19982079</v>
+        <v>1.26811594</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="8" t="n">
-        <v>36.99</v>
+        <v>30.72</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>14</v>
@@ -3344,25 +3326,25 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C74" s="6" t="n">
-        <v>2072.0</v>
+        <v>2861.0</v>
       </c>
       <c r="D74" s="6" t="n">
-        <v>2507.0</v>
+        <v>3439.0</v>
       </c>
       <c r="E74" s="7" t="n">
-        <v>1.20994208</v>
+        <v>1.20202726</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G74" s="8" t="n">
-        <v>37.07</v>
+        <v>30.26</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>14</v>
@@ -3379,25 +3361,25 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C75" s="6" t="n">
-        <v>9830.0</v>
+        <v>2145.0</v>
       </c>
       <c r="D75" s="6" t="n">
-        <v>17748.0</v>
+        <v>2720.0</v>
       </c>
       <c r="E75" s="7" t="n">
-        <v>1.80549339</v>
+        <v>1.26806527</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="8" t="n">
-        <v>36.75</v>
+        <v>30.05</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>14</v>
@@ -3414,25 +3396,25 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C76" s="6" t="n">
-        <v>3096.0</v>
+        <v>3071.0</v>
       </c>
       <c r="D76" s="6" t="n">
-        <v>3713.0</v>
+        <v>5176.0</v>
       </c>
       <c r="E76" s="7" t="n">
-        <v>1.19928941</v>
+        <v>1.68544448</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="8" t="n">
-        <v>36.64</v>
+        <v>29.33</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>14</v>
@@ -3449,25 +3431,25 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" s="6" t="n">
-        <v>3336.0</v>
+        <v>3343.0</v>
       </c>
       <c r="D77" s="6" t="n">
-        <v>3893.0</v>
+        <v>4082.0</v>
       </c>
       <c r="E77" s="7" t="n">
-        <v>1.16696643</v>
+        <v>1.22105893</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="8" t="n">
-        <v>34.89</v>
+        <v>27.3</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>14</v>
@@ -3484,25 +3466,25 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" s="6" t="n">
-        <v>4653.0</v>
+        <v>20958.0</v>
       </c>
       <c r="D78" s="6" t="n">
-        <v>5703.0</v>
+        <v>38175.0</v>
       </c>
       <c r="E78" s="7" t="n">
-        <v>1.22566086</v>
+        <v>1.82150014</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="8" t="n">
-        <v>32.64</v>
+        <v>26.45</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>14</v>
@@ -3519,28 +3501,28 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C79" s="6" t="n">
-        <v>1322.0</v>
+        <v>1400.0</v>
       </c>
       <c r="D79" s="6" t="n">
-        <v>1678.0</v>
+        <v>1689.0</v>
       </c>
       <c r="E79" s="7" t="n">
-        <v>1.26928896</v>
+        <v>1.20642857</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G79" s="8" t="n">
-        <v>31.11</v>
+        <v>26.4</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>15</v>
@@ -3554,25 +3536,25 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C80" s="6" t="n">
-        <v>1643.0</v>
+        <v>2105.0</v>
       </c>
       <c r="D80" s="6" t="n">
-        <v>2036.0</v>
+        <v>2407.0</v>
       </c>
       <c r="E80" s="7" t="n">
-        <v>1.23919659</v>
+        <v>1.14346793</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G80" s="8" t="n">
-        <v>30.91</v>
+        <v>25.44</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>14</v>
@@ -3589,25 +3571,25 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C81" s="6" t="n">
-        <v>1863.0</v>
+        <v>2792.0</v>
       </c>
       <c r="D81" s="6" t="n">
-        <v>2192.0</v>
+        <v>3403.0</v>
       </c>
       <c r="E81" s="7" t="n">
-        <v>1.17659689</v>
+        <v>1.21883954</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G81" s="8" t="n">
-        <v>29.77</v>
+        <v>25.22</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>14</v>
@@ -3624,25 +3606,25 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C82" s="6" t="n">
-        <v>2981.0</v>
+        <v>1490.0</v>
       </c>
       <c r="D82" s="6" t="n">
-        <v>4806.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E82" s="7" t="n">
-        <v>1.61221067</v>
+        <v>1.23489933</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="8" t="n">
-        <v>29.21</v>
+        <v>24.7</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>14</v>
@@ -3659,28 +3641,28 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C83" s="6" t="n">
-        <v>3294.0</v>
+        <v>1327.0</v>
       </c>
       <c r="D83" s="6" t="n">
-        <v>5012.0</v>
+        <v>1754.0</v>
       </c>
       <c r="E83" s="7" t="n">
-        <v>1.52155434</v>
+        <v>1.32177845</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="8" t="n">
-        <v>29.11</v>
+        <v>23.76</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>15</v>
@@ -3694,25 +3676,25 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C84" s="6" t="n">
-        <v>1995.0</v>
+        <v>10850.0</v>
       </c>
       <c r="D84" s="6" t="n">
-        <v>2570.0</v>
+        <v>13730.0</v>
       </c>
       <c r="E84" s="7" t="n">
-        <v>1.28822055</v>
+        <v>1.26543779</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G84" s="8" t="n">
-        <v>29.1</v>
+        <v>23.5</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>14</v>
@@ -3729,28 +3711,28 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C85" s="6" t="n">
-        <v>961.0</v>
+        <v>1033.0</v>
       </c>
       <c r="D85" s="6" t="n">
-        <v>1237.0</v>
+        <v>1401.0</v>
       </c>
       <c r="E85" s="7" t="n">
-        <v>1.28720083</v>
+        <v>1.35624395</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G85" s="8" t="n">
-        <v>24.61</v>
+        <v>21.71</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>15</v>
@@ -3764,28 +3746,28 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C86" s="6" t="n">
-        <v>1211.0</v>
+        <v>1947.0</v>
       </c>
       <c r="D86" s="6" t="n">
-        <v>1596.0</v>
+        <v>2486.0</v>
       </c>
       <c r="E86" s="7" t="n">
-        <v>1.31791908</v>
+        <v>1.27683616</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G86" s="8" t="n">
-        <v>21.72</v>
+        <v>21.35</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>15</v>
@@ -3799,25 +3781,25 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C87" s="6" t="n">
-        <v>3270.0</v>
+        <v>2904.0</v>
       </c>
       <c r="D87" s="6" t="n">
-        <v>4027.0</v>
+        <v>3450.0</v>
       </c>
       <c r="E87" s="7" t="n">
-        <v>1.23149847</v>
+        <v>1.18801653</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G87" s="8" t="n">
-        <v>20.5</v>
+        <v>21.08</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>14</v>
@@ -3834,25 +3816,25 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C88" s="6" t="n">
-        <v>1969.0</v>
+        <v>1912.0</v>
       </c>
       <c r="D88" s="6" t="n">
-        <v>2497.0</v>
+        <v>2237.0</v>
       </c>
       <c r="E88" s="7" t="n">
-        <v>1.26815642</v>
+        <v>1.16997908</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G88" s="8" t="n">
-        <v>20.47</v>
+        <v>19.32</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>14</v>
@@ -3869,25 +3851,25 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C89" s="6" t="n">
-        <v>1619.0</v>
+        <v>3334.0</v>
       </c>
       <c r="D89" s="6" t="n">
-        <v>1984.0</v>
+        <v>3938.0</v>
       </c>
       <c r="E89" s="7" t="n">
-        <v>1.22544781</v>
+        <v>1.18116377</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G89" s="8" t="n">
-        <v>19.3</v>
+        <v>15.58</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>14</v>
@@ -3904,25 +3886,25 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C90" s="6" t="n">
-        <v>7093.0</v>
+        <v>1183.0</v>
       </c>
       <c r="D90" s="6" t="n">
-        <v>11884.0</v>
+        <v>1440.0</v>
       </c>
       <c r="E90" s="7" t="n">
-        <v>1.67545467</v>
+        <v>1.21724429</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G90" s="8" t="n">
-        <v>18.49</v>
+        <v>15.34</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>14</v>
@@ -3939,25 +3921,25 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C91" s="6" t="n">
-        <v>1508.0</v>
+        <v>969.0</v>
       </c>
       <c r="D91" s="6" t="n">
-        <v>1886.0</v>
+        <v>1196.0</v>
       </c>
       <c r="E91" s="7" t="n">
-        <v>1.25066313</v>
+        <v>1.23426213</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G91" s="8" t="n">
-        <v>18.43</v>
+        <v>15.15</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>14</v>
@@ -3974,25 +3956,25 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C92" s="6" t="n">
-        <v>3223.0</v>
+        <v>1012.0</v>
       </c>
       <c r="D92" s="6" t="n">
-        <v>4930.0</v>
+        <v>1151.0</v>
       </c>
       <c r="E92" s="7" t="n">
-        <v>1.52963078</v>
+        <v>1.13735178</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G92" s="8" t="n">
-        <v>18.39</v>
+        <v>14.92</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>14</v>
@@ -4009,31 +3991,31 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C93" s="6" t="n">
-        <v>1443.0</v>
+        <v>672.0</v>
       </c>
       <c r="D93" s="6" t="n">
-        <v>2158.0</v>
+        <v>796.0</v>
       </c>
       <c r="E93" s="7" t="n">
-        <v>1.4954955</v>
+        <v>1.18452381</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G93" s="8" t="n">
-        <v>17.2</v>
+        <v>12.22</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>16</v>
@@ -4050,19 +4032,19 @@
         <v>121</v>
       </c>
       <c r="C94" s="6" t="n">
-        <v>1863.0</v>
+        <v>2480.0</v>
       </c>
       <c r="D94" s="6" t="n">
-        <v>2027.0</v>
+        <v>2673.0</v>
       </c>
       <c r="E94" s="7" t="n">
-        <v>1.08803006</v>
+        <v>1.07782258</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G94" s="8" t="n">
-        <v>15.88</v>
+        <v>12.06</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>14</v>
@@ -4079,31 +4061,31 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C95" s="6" t="n">
-        <v>1068.0</v>
+        <v>588.0</v>
       </c>
       <c r="D95" s="6" t="n">
-        <v>1274.0</v>
+        <v>694.0</v>
       </c>
       <c r="E95" s="7" t="n">
-        <v>1.1928839</v>
+        <v>1.18027211</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G95" s="8" t="n">
-        <v>14.4</v>
+        <v>11.35</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>16</v>
@@ -4114,31 +4096,31 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C96" s="6" t="n">
-        <v>4528.0</v>
+        <v>9362.0</v>
       </c>
       <c r="D96" s="6" t="n">
-        <v>6750.0</v>
+        <v>16913.0</v>
       </c>
       <c r="E96" s="7" t="n">
-        <v>1.49072438</v>
+        <v>1.80655843</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G96" s="8" t="n">
-        <v>12.46</v>
+        <v>11.2</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="J96" s="9" t="s">
         <v>16</v>
@@ -4149,31 +4131,31 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C97" s="6" t="n">
-        <v>615.0</v>
+        <v>812.0</v>
       </c>
       <c r="D97" s="6" t="n">
-        <v>717.0</v>
+        <v>1158.0</v>
       </c>
       <c r="E97" s="7" t="n">
-        <v>1.16585366</v>
+        <v>1.42610837</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G97" s="8" t="n">
-        <v>12.34</v>
+        <v>10.9</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>16</v>
@@ -4184,31 +4166,31 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C98" s="6" t="n">
-        <v>635.0</v>
+        <v>2947.0</v>
       </c>
       <c r="D98" s="6" t="n">
-        <v>737.0</v>
+        <v>4631.0</v>
       </c>
       <c r="E98" s="7" t="n">
-        <v>1.16062992</v>
+        <v>1.57142857</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G98" s="8" t="n">
-        <v>12.24</v>
+        <v>10.8</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="J98" s="9" t="s">
         <v>16</v>
@@ -4219,31 +4201,31 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C99" s="6" t="n">
-        <v>599.0</v>
+        <v>551.0</v>
       </c>
       <c r="D99" s="6" t="n">
-        <v>689.0</v>
+        <v>743.0</v>
       </c>
       <c r="E99" s="7" t="n">
-        <v>1.15025042</v>
+        <v>1.34845735</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G99" s="8" t="n">
-        <v>11.6</v>
+        <v>10.03</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>16</v>
@@ -4254,31 +4236,31 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="C100" s="6" t="n">
-        <v>338.0</v>
+        <v>240.0</v>
       </c>
       <c r="D100" s="6" t="n">
-        <v>370.0</v>
+        <v>282.0</v>
       </c>
       <c r="E100" s="7" t="n">
-        <v>1.09467456</v>
+        <v>1.175</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G100" s="8" t="n">
-        <v>10.52</v>
+        <v>4.13</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>16</v>
@@ -4289,31 +4271,31 @@
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C101" s="6" t="n">
-        <v>462.0</v>
+        <v>46.0</v>
       </c>
       <c r="D101" s="6" t="n">
-        <v>660.0</v>
+        <v>52.0</v>
       </c>
       <c r="E101" s="7" t="n">
-        <v>1.42857143</v>
+        <v>1.13043478</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G101" s="8" t="n">
-        <v>10.28</v>
+        <v>0.54</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>16</v>
@@ -4324,211 +4306,36 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C102" s="6" t="n">
-        <v>309.0</v>
+        <v>5.0</v>
       </c>
       <c r="D102" s="6" t="n">
-        <v>337.0</v>
+        <v>5.0</v>
       </c>
       <c r="E102" s="7" t="n">
-        <v>1.09061489</v>
+        <v>1.0</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G102" s="8" t="n">
-        <v>8.09</v>
+        <v>0.03</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>16</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C103" s="6" t="n">
-        <v>680.0</v>
-      </c>
-      <c r="D103" s="6" t="n">
-        <v>710.0</v>
-      </c>
-      <c r="E103" s="7" t="n">
-        <v>1.04411765</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J103" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K103" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C104" s="6" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="D104" s="6" t="n">
-        <v>138.0</v>
-      </c>
-      <c r="E104" s="7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="8" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J104" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K104" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C105" s="6" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="D105" s="6" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="E105" s="7" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="8" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K105" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C106" s="6" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="D106" s="6" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="E106" s="7" t="n">
-        <v>1.08333333</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="8" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J106" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K106" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C107" s="6" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="D107" s="6" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="E107" s="7" t="n">
-        <v>1.09090909</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="8" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J107" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K107" s="9" t="s">
         <v>17</v>
       </c>
     </row>
